--- a/doc/Cubicacion Proyecto.xlsx
+++ b/doc/Cubicacion Proyecto.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Número</t>
   </si>
@@ -248,37 +248,40 @@
     <t>Costo por Hora</t>
   </si>
   <si>
-    <t>FormularioActualizar</t>
-  </si>
-  <si>
-    <t>FormularioActualizarUsuario</t>
-  </si>
-  <si>
-    <t>FormularioEliminar</t>
-  </si>
-  <si>
-    <t>FormularioEliminarUsuario</t>
-  </si>
-  <si>
-    <t>FormularioIngresar</t>
-  </si>
-  <si>
-    <t>FormularioIngresarUsuario</t>
-  </si>
-  <si>
-    <t>FormularioListar</t>
-  </si>
-  <si>
     <t>FormularioListarUsuario</t>
   </si>
   <si>
-    <t>FormularioLogin</t>
-  </si>
-  <si>
-    <t>FormularioBusquedaSimple</t>
-  </si>
-  <si>
-    <t>FormularioBusquedaAvanzada</t>
+    <t>ActualizarContacto</t>
+  </si>
+  <si>
+    <t>ActualizarUsuario</t>
+  </si>
+  <si>
+    <t>EliminarUsuario</t>
+  </si>
+  <si>
+    <t>EliminarContacto</t>
+  </si>
+  <si>
+    <t>IngresarUsuario</t>
+  </si>
+  <si>
+    <t>IngresarContacto</t>
+  </si>
+  <si>
+    <t>ListarContacto</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>BusquedaSimple</t>
+  </si>
+  <si>
+    <t>BusquedaAvanzada</t>
+  </si>
+  <si>
+    <t>Menu</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1430,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -1475,7 +1478,7 @@
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2">
         <v>16</v>
@@ -1512,7 +1515,7 @@
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2">
         <v>6</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -1614,7 +1617,7 @@
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" s="30">
         <v>14</v>
@@ -1682,7 +1685,7 @@
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="30">
         <v>14</v>
@@ -1716,7 +1719,7 @@
     </row>
     <row r="9" spans="1:23" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B9" s="30">
         <v>6</v>
@@ -1851,26 +1854,36 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="30">
+        <v>12</v>
+      </c>
       <c r="C13" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="30">
+        <v>2</v>
+      </c>
+      <c r="F13" s="30">
+        <v>2</v>
+      </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="30"/>
+        <v>40</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0.68600000000000005</v>
+      </c>
       <c r="I13" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27.44</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -1958,7 +1971,7 @@
       </c>
       <c r="I17" s="7">
         <f>SUM(I2:I16)</f>
-        <v>157.96599999999998</v>
+        <v>185.40599999999998</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1">
@@ -1970,7 +1983,7 @@
       </c>
       <c r="I18" s="21">
         <f>I17/8</f>
-        <v>19.745749999999997</v>
+        <v>23.175749999999997</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1">
@@ -1987,7 +2000,7 @@
       </c>
       <c r="I19" s="21">
         <f>I17/'Calculo Costo Hora'!E2</f>
-        <v>3.9491499999999995</v>
+        <v>4.6351499999999994</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1">
@@ -2004,7 +2017,7 @@
       </c>
       <c r="I20" s="21">
         <f>I19*'Calculo Costo Hora'!F12</f>
-        <v>3198811.5</v>
+        <v>3754471.5</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1">

--- a/doc/Cubicacion Proyecto.xlsx
+++ b/doc/Cubicacion Proyecto.xlsx
@@ -248,9 +248,6 @@
     <t>Costo por Hora</t>
   </si>
   <si>
-    <t>FormularioListarUsuario</t>
-  </si>
-  <si>
     <t>ActualizarContacto</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>EliminarContacto</t>
   </si>
   <si>
-    <t>IngresarUsuario</t>
-  </si>
-  <si>
     <t>IngresarContacto</t>
   </si>
   <si>
@@ -282,6 +276,12 @@
   </si>
   <si>
     <t>Menu</t>
+  </si>
+  <si>
+    <t>ListarEmpresa</t>
+  </si>
+  <si>
+    <t>IngresarEmpresa</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -846,11 +846,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -947,13 +960,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1430,7 +1449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -1478,18 +1497,18 @@
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" s="16">
         <f t="shared" ref="C2:C16" si="0">B2*1</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" s="16">
         <f t="shared" ref="D2:D16" si="1">B2*1</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1499,14 +1518,14 @@
       </c>
       <c r="G2" s="19">
         <f t="shared" ref="G2:G16" si="2">SUM(B2:F2)</f>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H2" s="19">
         <v>0.68600000000000005</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:I16" si="3">G2*H2</f>
-        <v>34.300000000000004</v>
+        <v>48.706000000000003</v>
       </c>
       <c r="J2" s="1"/>
       <c r="U2" s="13"/>
@@ -1515,7 +1534,7 @@
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2">
         <v>6</v>
@@ -1549,7 +1568,7 @@
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -1583,7 +1602,7 @@
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1617,18 +1636,18 @@
     </row>
     <row r="6" spans="1:23" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="30">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="30">
         <v>1</v>
@@ -1638,31 +1657,31 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H6" s="19">
         <v>0.68600000000000005</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="3"/>
-        <v>30.184000000000001</v>
+        <v>44.59</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:23" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B7" s="30">
-        <v>4</v>
-      </c>
-      <c r="C7" s="14">
+        <v>21</v>
+      </c>
+      <c r="C7" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D7" s="14">
+        <v>21</v>
+      </c>
+      <c r="D7" s="34">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E7" s="30">
         <v>1</v>
@@ -1670,124 +1689,124 @@
       <c r="F7" s="30">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H7" s="19">
         <v>0.68600000000000005</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="36">
         <f t="shared" si="3"/>
-        <v>9.604000000000001</v>
+        <v>44.59</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="30">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C8" s="14">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D8" s="14">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E8" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="30">
         <v>1</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H8" s="19">
         <v>0.57099999999999995</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
-        <v>25.123999999999999</v>
+        <v>41.111999999999995</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B9" s="30">
-        <v>6</v>
-      </c>
-      <c r="C9" s="32">
+        <v>21</v>
+      </c>
+      <c r="C9" s="34">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D9" s="14">
+        <v>21</v>
+      </c>
+      <c r="D9" s="34">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E9" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="30">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="30">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H9" s="19">
+        <v>66</v>
+      </c>
+      <c r="H9" s="35">
         <v>0.57099999999999995</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="30">
         <f t="shared" si="3"/>
-        <v>11.419999999999998</v>
+        <v>37.686</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="30">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C10" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D10" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E10" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="30">
         <v>1</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H10" s="31">
         <v>0.68600000000000005</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>7.5460000000000003</v>
+        <v>45.276000000000003</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:23" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="30">
         <v>3</v>
@@ -1821,52 +1840,52 @@
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="30">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C12" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E12" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="30">
         <v>1</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="H12" s="31">
         <v>0.68600000000000005</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="3"/>
-        <v>7.5460000000000003</v>
+        <v>78.204000000000008</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:23" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="30">
         <v>2</v>
@@ -1876,14 +1895,14 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H13" s="30">
         <v>0.68600000000000005</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="3"/>
-        <v>27.44</v>
+        <v>25.382000000000001</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -1960,18 +1979,18 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="18">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="24"/>
       <c r="H17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="7">
         <f>SUM(I2:I16)</f>
-        <v>185.40599999999998</v>
+        <v>397.78800000000001</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1">
@@ -1983,7 +2002,7 @@
       </c>
       <c r="I18" s="21">
         <f>I17/8</f>
-        <v>23.175749999999997</v>
+        <v>49.723500000000001</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1">
@@ -2000,7 +2019,7 @@
       </c>
       <c r="I19" s="21">
         <f>I17/'Calculo Costo Hora'!E2</f>
-        <v>4.6351499999999994</v>
+        <v>9.944700000000001</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1">
@@ -2017,7 +2036,7 @@
       </c>
       <c r="I20" s="21">
         <f>I19*'Calculo Costo Hora'!F12</f>
-        <v>3754471.5</v>
+        <v>8055207.0000000019</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="12.75" customHeight="1">
